--- a/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_DRE_Cap05_Usuarios_150505.xlsx
+++ b/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_DRE_Cap05_Usuarios_150505.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="KAM - RM - HQM" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="168">
   <si>
     <t>10% de su tiempo - (4hrs / semanales)</t>
   </si>
@@ -884,6 +884,76 @@
   </si>
   <si>
     <t>Desktop</t>
+  </si>
+  <si>
+    <t>1 ó 2</t>
+  </si>
+  <si>
+    <t>Gestión de BB.DD (hay que definir cuales)</t>
+  </si>
+  <si>
+    <t>Informes 
+Fichas de empresas</t>
+  </si>
+  <si>
+    <t>Gestión de empresas y contatos</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Permisos de gestión completa, incluyendo lectura y escritura de registros en las BB.DD que se le asigne</t>
+  </si>
+  <si>
+    <t>Carga de trabajo variable según demanda</t>
+  </si>
+  <si>
+    <t>Director Área FV</t>
+  </si>
+  <si>
+    <t>AS Italia</t>
+  </si>
+  <si>
+    <t>AS Francia</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>Comercial - Ventas</t>
+  </si>
+  <si>
+    <t>Comercial - Filiales</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Supervisión de la puesta en marcha</t>
+  </si>
+  <si>
+    <t>Persona responsable funcional Francia
+Formación de usuarios CRM (Francia)</t>
+  </si>
+  <si>
+    <t>Persona responsable funcional Italia
+Formación de usuarios CRM (Italia)</t>
+  </si>
+  <si>
+    <t>Formación de usuarios CRM (Gestión de Pedidos)</t>
+  </si>
+  <si>
+    <t>Comercial - Gestión de Pedidos</t>
+  </si>
+  <si>
+    <t>Formación de usuarios CRM (Ventas)</t>
+  </si>
+  <si>
+    <t>Formación de usuarios CRM (TI)
+Es el CRM Admin</t>
+  </si>
+  <si>
+    <t>Planificar y dirigir la política de promoción, venta y distribución de productos y servicios de la compañía</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1131,6 +1201,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1146,11 +1222,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,30 +1534,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="45.85546875" style="4"/>
+    <col min="1" max="1" width="44.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="45.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1491,11 +1569,11 @@
       <c r="C2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1537,7 +1615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>106</v>
       </c>
@@ -1565,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
@@ -1579,7 +1657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
@@ -1593,7 +1671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
@@ -1621,7 +1699,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>113</v>
       </c>
@@ -1663,7 +1741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1692,7 +1770,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,16 +1781,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="20" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1720,7 +1798,7 @@
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1728,7 +1806,7 @@
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1736,7 +1814,7 @@
       <c r="A5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1744,7 +1822,7 @@
       <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1752,7 +1830,7 @@
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="20">
         <v>0</v>
       </c>
     </row>
@@ -1760,7 +1838,7 @@
       <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="20" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1768,7 +1846,7 @@
       <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="20" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1776,7 +1854,7 @@
       <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1784,7 +1862,7 @@
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="20" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1792,7 +1870,7 @@
       <c r="A12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="20" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1800,7 +1878,7 @@
       <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="20" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1808,7 +1886,7 @@
       <c r="A14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="20" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1816,7 +1894,7 @@
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="20" t="s">
         <v>141</v>
       </c>
       <c r="C15" s="14"/>
@@ -1836,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,16 +1925,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="20" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1864,7 +1942,7 @@
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="20" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1872,7 +1950,7 @@
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="20" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1880,7 +1958,7 @@
       <c r="A5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="20" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1888,80 +1966,80 @@
       <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="26">
-        <v>1.02</v>
+      <c r="B6" s="21" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>115</v>
+      <c r="B7" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>115</v>
+      <c r="B10" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>115</v>
+      <c r="B11" s="20" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>115</v>
+      <c r="B12" s="20" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>115</v>
+      <c r="B13" s="20" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>115</v>
+      <c r="B15" s="20" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +2047,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1977,23 +2056,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="B2:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="10"/>
     <col min="2" max="2" width="33.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="29" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="10" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
@@ -2010,57 +2091,89 @@
       <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2074,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,10 +2199,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2217,7 +2330,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2227,10 +2342,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2368,10 +2483,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2512,14 +2627,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2747,10 +2862,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2888,10 +3003,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3031,10 +3146,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3178,10 +3293,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_DRE_Cap05_Usuarios_150505.xlsx
+++ b/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_DRE_Cap05_Usuarios_150505.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="KAM - RM - HQM" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="173">
   <si>
     <t>10% de su tiempo - (4hrs / semanales)</t>
   </si>
@@ -338,9 +338,6 @@
   </si>
   <si>
     <t xml:space="preserve">PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informes marcha negocio filiales y global       Status proyectos y pipelines       </t>
   </si>
   <si>
     <t>Administración de Pedidos</t>
@@ -718,16 +715,6 @@
     <t>Coordinación de las asistencias post-venta a cliente por problemas de diseño de producto y la gestión de repuestos.</t>
   </si>
   <si>
-    <t>Coordinación de las asistencias post-venta a cliente por problemas de diseño de producto y gestión del proceso de reparaciones</t>
-  </si>
-  <si>
-    <t>Coordinación de las asistencias post-venta a cliente por problemas de diseño de producto y en específico asistencia técnica al cliente en field</t>
-  </si>
-  <si>
-    <t>Gestionar y coordinar todas las actividades relacionadas con la comunicación de la empresa con terceros
-(prensa, Web, ferias)</t>
-  </si>
-  <si>
     <t>Gestión de grandes cuentas y proyectos asi como la apertura de nuevos mercados y la ejecución de la política comercial planificada, manteniendo e incrementando la cartera de clientes</t>
   </si>
   <si>
@@ -839,9 +826,6 @@
 (CRM interaction time)</t>
   </si>
   <si>
-    <t>Cumple funciones de formación, puesta en marcha, mantenimiento, resolución de errores y problemas y de informar a gerencia sobre el sistema CRM</t>
-  </si>
-  <si>
     <t>IPT-FV HQ/Remote</t>
   </si>
   <si>
@@ -874,9 +858,6 @@
     <t>Superuser</t>
   </si>
   <si>
-    <t>Entrada de datos en el CRM a petición de empleados de IPT-FV</t>
-  </si>
-  <si>
     <t>IPT-FV HQ</t>
   </si>
   <si>
@@ -953,7 +934,42 @@
 Es el CRM Admin</t>
   </si>
   <si>
-    <t>Planificar y dirigir la política de promoción, venta y distribución de productos y servicios de la compañía</t>
+    <t>Impulsar las ventas en las regiones bajo su cargo. Planificar y dirigir planes organizacionales, servicio a los clientes y ejecución de todas las estragias de operación de manera consistente y exitosa.</t>
+  </si>
+  <si>
+    <t>El establecimiento de medidas de control y correctoras para evitar y reducir los riesgos con el fin de conseguir la mejora de la seguridad y la salud en el entorno laboral.</t>
+  </si>
+  <si>
+    <t>Desarrollar adecuadamente la cultura organizacional de la empresa y supervisar que los cambios en las condiciones de trabajo sean debidamente coordinadas para asegurar la productividad de la empresa.</t>
+  </si>
+  <si>
+    <t>Entrada de datos en el CRM a petición de empleados de IPT-FV.</t>
+  </si>
+  <si>
+    <t>Cumple funciones de formación, puesta en marcha, mantenimiento, resolución de errores y problemas y de informar a gerencia sobre el sistema CRM.</t>
+  </si>
+  <si>
+    <t>Gestionar y coordinar todas las actividades relacionadas con la comunicación de la empresa con terceros
+(prensa, Web, ferias).</t>
+  </si>
+  <si>
+    <t>Coordinación de las asistencias post-venta a cliente por problemas de diseño de producto y en específico asistencia técnica al cliente en field.</t>
+  </si>
+  <si>
+    <t>Coordinación de las asistencias post-venta a cliente por problemas de diseño de producto y gestión del proceso de reparaciones.</t>
+  </si>
+  <si>
+    <t>Planificar y dirigir la política de promoción, venta y distribución de productos y servicios de la compañía.</t>
+  </si>
+  <si>
+    <t>Establecer los planes de producción en acuerdo con las previsiones de ventas. Gestionar el inventario de productos así como garantizar las acciones preventivas y correctivas para asegurar la satisfacción de las necesidades del servicio comercial y de la producción.</t>
+  </si>
+  <si>
+    <t>Supervisar y aprobar la gestión contable así como llevar a cabo el análisis financiero de proyectos y situación de la compañía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informes marcha negocio filiales y global 
+      Status proyectos y pipelines       </t>
   </si>
 </sst>
 </file>
@@ -1144,9 +1160,6 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1207,6 +1220,12 @@
     <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1223,9 +1242,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1534,225 +1550,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="45.85546875" style="4"/>
+    <col min="1" max="1" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="45.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1775,130 +1791,130 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="38.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="25"/>
+      <c r="A1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B3" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1920,126 +1936,126 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="34.140625" style="4"/>
-    <col min="3" max="16384" width="34.140625" style="5"/>
+    <col min="1" max="2" width="34.140625" style="3"/>
+    <col min="3" max="16384" width="34.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="25"/>
+      <c r="A1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B3" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2057,122 +2073,122 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="B2:D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="10"/>
-    <col min="2" max="2" width="33.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="11.42578125" style="9"/>
+    <col min="2" max="2" width="33.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>127</v>
+      <c r="B3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C5" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D9" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2193,127 +2209,127 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2331,132 +2347,132 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="39.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="25"/>
+      <c r="A1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2473,129 +2489,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="40.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="25"/>
+      <c r="A1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2612,230 +2630,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="C1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="40" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="38.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2852,131 +2870,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="38.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2993,131 +3013,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="56" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="38.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="56" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3134,139 +3156,139 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="38.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3283,134 +3305,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="40.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="25"/>
+      <c r="A1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
